--- a/Assets/ArtRes/Excel/ChapterData.xlsx
+++ b/Assets/ArtRes/Excel/ChapterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\YM\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2BB6BD-F078-4BB9-BE8C-D8ECD3E9B4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3CDED2-73F1-4064-B876-9EC1AC34DDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="5505" windowWidth="34920" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="6120" windowWidth="35145" windowHeight="17325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterData" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
